--- a/data/input_excel/DBLP_toxic_language_models.xlsx
+++ b/data/input_excel/DBLP_toxic_language_models.xlsx
@@ -375,24 +375,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="109.83203125" customWidth="1"/>
+    <col min="2" max="2" width="89.83203125" customWidth="1"/>
+    <col min="3" max="3" width="66.83203125" customWidth="1"/>
+    <col min="4" max="4" width="146.83203125" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
     <col min="9" max="9" width="41.83203125" customWidth="1"/>
-    <col min="10" max="10" width="237.83203125" customWidth="1"/>
+    <col min="10" max="10" width="282.83203125" customWidth="1"/>
     <col min="11" max="11" width="14.83203125" customWidth="1"/>
-    <col min="12" max="12" width="93.83203125" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" customWidth="1"/>
+    <col min="12" max="12" width="117.83203125" customWidth="1"/>
+    <col min="13" max="13" width="41.83203125" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -442,178 +442,178 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B2" t="str">
-        <v>Wen J,Ke P,Sun H,Zhang Z,Li C,Bai J,Huang M</v>
+        <v>Corbo S,Bancale L,Gennaro V,Lestingi L,Scotti V,Camilli M</v>
       </c>
       <c r="C2" t="str">
-        <v>Bouamor H,Pino J,Bali K</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>Unveiling the Implicit Toxicity in Large Language Models</v>
+        <v>How Toxic Can You Get? Search-based Toxicity Testing for Large Language Models</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F2" t="str">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>abs/2501.01741</v>
       </c>
       <c r="H2" t="str">
-        <v>1322-1338</v>
+        <v/>
       </c>
       <c r="I2" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="J2" t="str">
-        <v>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing, EMNLP 2023, Singapore, December 6-10, 2023</v>
+        <v/>
       </c>
       <c r="K2" t="str">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="L2" t="str">
-        <v>https://aclanthology.org/2023.emnlp-main.84</v>
+        <v>https://doi.org/10.48550/arXiv.2501.01741;http://dx.doi.org/10.48550/ARXIV.2501.01741</v>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2501.01741</v>
       </c>
       <c r="N2" t="str">
-        <v/>
+        <v>2501.01741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B3" t="str">
-        <v>He X,Zannettou S,Shen Y,Zhang Y</v>
+        <v>Zhang J,Wu Q,Xu Y,Cao C,Du Z,Psounis K</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Wooldridge MJ,Dy JG,Natarajan S</v>
       </c>
       <c r="D3" t="str">
-        <v>You Only Prompt Once: On the Capabilities of Prompt Learning on Large Language Models to Tackle Toxic Content</v>
+        <v>Efficient Toxic Content Detection by Bootstrapping and Distilling Large Language Models</v>
       </c>
       <c r="E3" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G3" t="str">
-        <v>abs/2308.05596</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>21779-21787</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>AAAI Press</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>Thirty-Eighth AAAI Conference on Artificial Intelligence, AAAI 2024, Thirty-Sixth Conference on Innovative Applications of Artificial Intelligence, IAAI 2024, Fourteenth Symposium on Educational Advances in Artificial Intelligence, EAAI 2014, February 20-27, 2024, Vancouver, Canada</v>
       </c>
       <c r="K3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L3" t="str">
-        <v>https://doi.org/10.48550/arXiv.2308.05596;http://dx.doi.org/10.48550/ARXIV.2308.05596</v>
+        <v>https://doi.org/10.1609/aaai.v38i19.30178;http://dx.doi.org/10.1609/AAAI.V38I19.30178</v>
       </c>
       <c r="M3" t="str">
-        <v>10.48550/ARXIV.2308.05596</v>
+        <v>10.1609/AAAI.V38I19.30178</v>
       </c>
       <c r="N3" t="str">
-        <v>2308.05596</v>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B4" t="str">
-        <v>Wen J,Ke P,Sun H,Zhang Z,Li C,Bai J,Huang M</v>
+        <v>Luong T,Le TT,Ngo L,Nguyen T</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>Ku LW,Martins A,Srikumar V</v>
       </c>
       <c r="D4" t="str">
-        <v>Unveiling the Implicit Toxicity in Large Language Models</v>
+        <v>Realistic Evaluation of Toxicity in Large Language Models</v>
       </c>
       <c r="E4" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G4" t="str">
-        <v>abs/2311.17391</v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>1038-1047</v>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>Findings of the Association for Computational Linguistics, ACL 2024, Bangkok, Thailand and virtual meeting, August 11-16, 2024</v>
       </c>
       <c r="K4" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L4" t="str">
-        <v>https://doi.org/10.48550/arXiv.2311.17391;http://dx.doi.org/10.48550/ARXIV.2311.17391</v>
+        <v>https://doi.org/10.18653/v1/2024.findings-acl.61;http://dx.doi.org/10.18653/V1/2024.FINDINGS-ACL.61</v>
       </c>
       <c r="M4" t="str">
-        <v>10.48550/ARXIV.2311.17391</v>
+        <v>10.18653/V1/2024.FINDINGS-ACL.61</v>
       </c>
       <c r="N4" t="str">
-        <v>2311.17391</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B5" t="str">
-        <v>Byun S,Jang D,Jo H,Shin H</v>
+        <v>Xu R,Zhou Z,Zhang T,Qi Z,Yao S,Xu K,Xu W,Qiu H</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Al-Onaizan Y,Bansal M,Chen YN</v>
       </c>
       <c r="D5" t="str">
-        <v>Automatic Construction of a Korean Toxic Instruction Dataset for Ethical Tuning of Large Language Models</v>
+        <v>Walking in Others' Shoes: How Perspective-Taking Guides Large Language Models in Reducing Toxicity and Bias</v>
       </c>
       <c r="E5" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F5" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G5" t="str">
-        <v>abs/2311.18215</v>
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>8341-8368</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>Proceedings of the 2024 Conference on Empirical Methods in Natural Language Processing, EMNLP 2024, Miami, FL, USA, November 12-16, 2024</v>
       </c>
       <c r="K5" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L5" t="str">
-        <v>https://doi.org/10.48550/arXiv.2311.18215;http://dx.doi.org/10.48550/ARXIV.2311.18215</v>
+        <v>https://aclanthology.org/2024.emnlp-main.476</v>
       </c>
       <c r="M5" t="str">
-        <v>10.48550/ARXIV.2311.18215</v>
+        <v/>
       </c>
       <c r="N5" t="str">
-        <v>2311.18215</v>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,48 +621,928 @@
         <v>Conference Paper</v>
       </c>
       <c r="B6" t="str">
+        <v>Dutta A,Khorramrouz A,Dutta S,KhudaBukhsh AR</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>Down the Toxicity Rabbit Hole: A Framework to Bias Audit Large Language Models with Key Emphasis on Racism, Antisemitism, and Misogyny</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v>7242-7250</v>
+      </c>
+      <c r="I6" t="str">
+        <v>ijcai.org</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Proceedings of the Thirty-Third International Joint Conference on Artificial Intelligence, IJCAI 2024, Jeju, South Korea, August 3-9, 2024</v>
+      </c>
+      <c r="K6" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L6" t="str">
+        <v>https://www.ijcai.org/proceedings/2024/801</v>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Liu Y,Yu J,Sun H,Shi L,Deng G,Chen Y,Liu Y</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Filkov V,Ray B,Zhou M</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Efficient Detection of Toxic Prompts in Large Language Models</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>455-467</v>
+      </c>
+      <c r="I7" t="str">
+        <v>ACM</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Proceedings of the 39th IEEE/ACM International Conference on Automated Software Engineering, ASE 2024, Sacramento, CA, USA, October 27 - November 1, 2024</v>
+      </c>
+      <c r="K7" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L7" t="str">
+        <v>https://doi.org/10.1145/3691620.3695018;http://dx.doi.org/10.1145/3691620.3695018</v>
+      </c>
+      <c r="M7" t="str">
+        <v>10.1145/3691620.3695018</v>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Taveekitworachai P,Abdullah F,Gursesli MC,Lanatà A,Guazzini A,Thawonmas R</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>Prompt Evolution Through Examples for Large Language Models-A Case Study in Game Comment Toxicity Classification</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v>22-27</v>
+      </c>
+      <c r="I8" t="str">
+        <v>IEEE</v>
+      </c>
+      <c r="J8" t="str">
+        <v>IEEE International Workshop on Metrology for Industry 4.0 and IoT, MetroInd4.0 &amp; IoT 2024, Firenze, Italy, May 29-31, 2024</v>
+      </c>
+      <c r="K8" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L8" t="str">
+        <v>https://doi.org/10.1109/MetroInd4.0IoT61288.2024.10584130;http://dx.doi.org/10.1109/METROIND4.0IOT61288.2024.10584130</v>
+      </c>
+      <c r="M8" t="str">
+        <v>10.1109/METROIND4.0IOT61288.2024.10584130</v>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B9" t="str">
+        <v>da Silva Oliveira A,de Carvalho Cecote T,Alvarenga JP,de Souza Freitas VL,da Silva Luz EJ</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Gamallo P,Claro DB,Teixeira AJ,Real L,García M,Oliveira HG,Amaro R</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Toxic Speech Detection in Portuguese: A Comparative Study of Large Language Models</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v>108-116</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Association for Computational Lingustics</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Proceedings of the 16th International Conference on Computational Processing of Portuguese, PROPOR 2024, Santiago de Compostela, Galicia/Spain, 12-15 March, 2024</v>
+      </c>
+      <c r="K9" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L9" t="str">
+        <v>https://aclanthology.org/2024.propor-1.11</v>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B10" t="str">
+        <v>He X,Zannettou S,Shen Y,Zhang Y</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v>You Only Prompt Once: On the Capabilities of Prompt Learning on Large Language Models to Tackle Toxic Content</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>770-787</v>
+      </c>
+      <c r="I10" t="str">
+        <v>IEEE</v>
+      </c>
+      <c r="J10" t="str">
+        <v>IEEE Symposium on Security and Privacy, SP 2024, San Francisco, CA, USA, May 19-23, 2024</v>
+      </c>
+      <c r="K10" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L10" t="str">
+        <v>https://doi.org/10.1109/SP54263.2024.00061;http://dx.doi.org/10.1109/SP54263.2024.00061</v>
+      </c>
+      <c r="M10" t="str">
+        <v>10.1109/SP54263.2024.00061</v>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Stein K,Harvey A,Lopez A,Taj U,Watkins S,Watkins LA</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>Eliciting and Measuring Toxic Bias in Human-to-Machine Interactions in Large Language Models</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v>13-19</v>
+      </c>
+      <c r="I11" t="str">
+        <v>IEEE</v>
+      </c>
+      <c r="J11" t="str">
+        <v>15th IEEE Annual Ubiquitous Computing, Electronics &amp; Mobile Communication Conference, UEMCON 2024, Yorktown Heights, NY, USA, October 17-19, 2024</v>
+      </c>
+      <c r="K11" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L11" t="str">
+        <v>https://doi.org/10.1109/UEMCON62879.2024.10754689;http://dx.doi.org/10.1109/UEMCON62879.2024.10754689</v>
+      </c>
+      <c r="M11" t="str">
+        <v>10.1109/UEMCON62879.2024.10754689</v>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Khan A,Saravanan P,Venkatesan SK</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>Social Evolution of Published Text and The Emergence of Artificial Intelligence Through Large Language Models and The Problem of Toxicity and Bias</v>
+      </c>
+      <c r="E12" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G12" t="str">
+        <v>abs/2402.07166</v>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L12" t="str">
+        <v>https://doi.org/10.48550/arXiv.2402.07166;http://dx.doi.org/10.48550/ARXIV.2402.07166</v>
+      </c>
+      <c r="M12" t="str">
+        <v>10.48550/ARXIV.2402.07166</v>
+      </c>
+      <c r="N12" t="str">
+        <v>2402.07166</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Jain D,Kumar P,Gehman S,Zhou X,Hartvigsen T,Sap M</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v>PolygloToxicityPrompts: Multilingual Evaluation of Neural Toxic Degeneration in Large Language Models</v>
+      </c>
+      <c r="E13" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G13" t="str">
+        <v>abs/2405.09373</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L13" t="str">
+        <v>https://doi.org/10.48550/arXiv.2405.09373;http://dx.doi.org/10.48550/ARXIV.2405.09373</v>
+      </c>
+      <c r="M13" t="str">
+        <v>10.48550/ARXIV.2405.09373</v>
+      </c>
+      <c r="N13" t="str">
+        <v>2405.09373</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Luong TS,Le TT,Van LN,Nguyen TH</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v>Realistic Evaluation of Toxicity in Large Language Models</v>
+      </c>
+      <c r="E14" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G14" t="str">
+        <v>abs/2405.10659</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L14" t="str">
+        <v>https://doi.org/10.48550/arXiv.2405.10659;http://dx.doi.org/10.48550/ARXIV.2405.10659</v>
+      </c>
+      <c r="M14" t="str">
+        <v>10.48550/ARXIV.2405.10659</v>
+      </c>
+      <c r="N14" t="str">
+        <v>2405.10659</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Xu R,Zhou Z,Zhang T,Qi Z,Yao S,Xu K,Xu W,Qiu H</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v>Walking in Others' Shoes: How Perspective-Taking Guides Large Language Models in Reducing Toxicity and Bias</v>
+      </c>
+      <c r="E15" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G15" t="str">
+        <v>abs/2407.15366</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L15" t="str">
+        <v>https://doi.org/10.48550/arXiv.2407.15366;http://dx.doi.org/10.48550/ARXIV.2407.15366</v>
+      </c>
+      <c r="M15" t="str">
+        <v>10.48550/ARXIV.2407.15366</v>
+      </c>
+      <c r="N15" t="str">
+        <v>2407.15366</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Liu Y,Yu J,Sun H,Shi L,Deng G,Chen Y,Liu Y</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>Efficient Detection of Toxic Prompts in Large Language Models</v>
+      </c>
+      <c r="E16" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G16" t="str">
+        <v>abs/2408.11727</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L16" t="str">
+        <v>https://doi.org/10.48550/arXiv.2408.11727;http://dx.doi.org/10.48550/ARXIV.2408.11727</v>
+      </c>
+      <c r="M16" t="str">
+        <v>10.48550/ARXIV.2408.11727</v>
+      </c>
+      <c r="N16" t="str">
+        <v>2408.11727</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Wang W</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>Testing and Evaluation of Large Language Models: Correctness, Non-Toxicity, and Fairness</v>
+      </c>
+      <c r="E17" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G17" t="str">
+        <v>abs/2409.00551</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L17" t="str">
+        <v>https://doi.org/10.48550/arXiv.2409.00551;http://dx.doi.org/10.48550/ARXIV.2409.00551</v>
+      </c>
+      <c r="M17" t="str">
+        <v>10.48550/ARXIV.2409.00551</v>
+      </c>
+      <c r="N17" t="str">
+        <v>2409.00551</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Phutane M,Seelam A,Vashistha A</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>How Toxicity Classifiers and Large Language Models Respond to Ableism</v>
+      </c>
+      <c r="E18" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G18" t="str">
+        <v>abs/2410.03448</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L18" t="str">
+        <v>https://doi.org/10.48550/arXiv.2410.03448;http://dx.doi.org/10.48550/ARXIV.2410.03448</v>
+      </c>
+      <c r="M18" t="str">
+        <v>10.48550/ARXIV.2410.03448</v>
+      </c>
+      <c r="N18" t="str">
+        <v>2410.03448</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Lu H,Lam W</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v>Toxic Subword Pruning for Dialogue Response Generation on Large Language Models</v>
+      </c>
+      <c r="E19" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G19" t="str">
+        <v>abs/2410.04155</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L19" t="str">
+        <v>https://doi.org/10.48550/arXiv.2410.04155;http://dx.doi.org/10.48550/ARXIV.2410.04155</v>
+      </c>
+      <c r="M19" t="str">
+        <v>10.48550/ARXIV.2410.04155</v>
+      </c>
+      <c r="N19" t="str">
+        <v>2410.04155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Oskouie HE,Chance C,Huang C,Capetz M,Eyeson E,Sarrafzadeh M</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v>Leveraging Large Language Models and Topic Modeling for Toxicity Classification</v>
+      </c>
+      <c r="E20" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G20" t="str">
+        <v>abs/2411.17876</v>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v>2024</v>
+      </c>
+      <c r="L20" t="str">
+        <v>https://doi.org/10.48550/arXiv.2411.17876;http://dx.doi.org/10.48550/ARXIV.2411.17876</v>
+      </c>
+      <c r="M20" t="str">
+        <v>10.48550/ARXIV.2411.17876</v>
+      </c>
+      <c r="N20" t="str">
+        <v>2411.17876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Wen J,Ke P,Sun H,Zhang Z,Li C,Bai J,Huang M</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Bouamor H,Pino J,Bali K</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Unveiling the Implicit Toxicity in Large Language Models</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v>1322-1338</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing, EMNLP 2023, Singapore, December 6-10, 2023</v>
+      </c>
+      <c r="K21" t="str">
+        <v>2023</v>
+      </c>
+      <c r="L21" t="str">
+        <v>https://doi.org/10.18653/v1/2023.emnlp-main.84;http://dx.doi.org/10.18653/V1/2023.EMNLP-MAIN.84</v>
+      </c>
+      <c r="M21" t="str">
+        <v>10.18653/V1/2023.EMNLP-MAIN.84</v>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B22" t="str">
+        <v>He X,Zannettou S,Shen Y,Zhang Y</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>You Only Prompt Once: On the Capabilities of Prompt Learning on Large Language Models to Tackle Toxic Content</v>
+      </c>
+      <c r="E22" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G22" t="str">
+        <v>abs/2308.05596</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v>2023</v>
+      </c>
+      <c r="L22" t="str">
+        <v>https://doi.org/10.48550/arXiv.2308.05596;http://dx.doi.org/10.48550/ARXIV.2308.05596</v>
+      </c>
+      <c r="M22" t="str">
+        <v>10.48550/ARXIV.2308.05596</v>
+      </c>
+      <c r="N22" t="str">
+        <v>2308.05596</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Wen J,Ke P,Sun H,Zhang Z,Li C,Bai J,Huang M</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>Unveiling the Implicit Toxicity in Large Language Models</v>
+      </c>
+      <c r="E23" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G23" t="str">
+        <v>abs/2311.17391</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>2023</v>
+      </c>
+      <c r="L23" t="str">
+        <v>https://doi.org/10.48550/arXiv.2311.17391;http://dx.doi.org/10.48550/ARXIV.2311.17391</v>
+      </c>
+      <c r="M23" t="str">
+        <v>10.48550/ARXIV.2311.17391</v>
+      </c>
+      <c r="N23" t="str">
+        <v>2311.17391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Byun S,Jang D,Jo H,Shin H</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>Automatic Construction of a Korean Toxic Instruction Dataset for Ethical Tuning of Large Language Models</v>
+      </c>
+      <c r="E24" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G24" t="str">
+        <v>abs/2311.18215</v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v>2023</v>
+      </c>
+      <c r="L24" t="str">
+        <v>https://doi.org/10.48550/arXiv.2311.18215;http://dx.doi.org/10.48550/ARXIV.2311.18215</v>
+      </c>
+      <c r="M24" t="str">
+        <v>10.48550/ARXIV.2311.18215</v>
+      </c>
+      <c r="N24" t="str">
+        <v>2311.18215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Zhang J,Wu Q,Xu Y,Cao C,Du Z,Psounis K</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v>Efficient Toxic Content Detection by Bootstrapping and Distilling Large Language Models</v>
+      </c>
+      <c r="E25" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G25" t="str">
+        <v>abs/2312.08303</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v>2023</v>
+      </c>
+      <c r="L25" t="str">
+        <v>https://doi.org/10.48550/arXiv.2312.08303;http://dx.doi.org/10.48550/ARXIV.2312.08303</v>
+      </c>
+      <c r="M25" t="str">
+        <v>10.48550/ARXIV.2312.08303</v>
+      </c>
+      <c r="N25" t="str">
+        <v>2312.08303</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B26" t="str">
         <v>Ousidhoum N,Zhao X,Fang T,Song Y,Yeung DY</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C26" t="str">
         <v>Zong C,Xia F,Li W,Navigli R</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D26" t="str">
         <v>Probing Toxic Content in Large Pre-Trained Language Models</v>
       </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
         <v>2021</v>
       </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
         <v>4262-4274</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I26" t="str">
         <v>Association for Computational Linguistics</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J26" t="str">
         <v>Proceedings of the 59th Annual Meeting of the Association for Computational Linguistics and the 11th International Joint Conference on Natural Language Processing, ACL/IJCNLP 2021, (Volume 1: Long Papers), Virtual Event, August 1-6, 2021</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K26" t="str">
         <v>2021</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L26" t="str">
         <v>https://doi.org/10.18653/v1/2021.acl-long.329;http://dx.doi.org/10.18653/V1/2021.ACL-LONG.329</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M26" t="str">
         <v>10.18653/V1/2021.ACL-LONG.329</v>
       </c>
-      <c r="N6" t="str">
+      <c r="N26" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N26"/>
   </ignoredErrors>
 </worksheet>
 </file>